--- a/z0bug_odoo/testenv/account_account.xlsx
+++ b/z0bug_odoo/testenv/account_account.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Tax Paid</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.bank</t>
+    <t xml:space="preserve">z0bug.coa_bank</t>
   </si>
   <si>
     <t xml:space="preserve">Bank</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">account.data_account_type_liquidity</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.cash</t>
+    <t xml:space="preserve">z0bug.coa_cash</t>
   </si>
   <si>
     <t xml:space="preserve">Cash</t>
@@ -546,7 +546,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,8 +1215,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/z0bug_odoo/testenv/account_account.xlsx
+++ b/z0bug_odoo/testenv/account_account.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dividends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_gc_rc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G/C RC</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.lp</t>
@@ -541,12 +547,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1197,18 +1203,36 @@
         <v>93</v>
       </c>
       <c r="B38" s="2" t="n">
+        <v>490050</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>999999</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/z0bug_odoo/testenv/account_account.xlsx
+++ b/z0bug_odoo/testenv/account_account.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,90 +46,99 @@
     <t xml:space="preserve">account.data_account_type_fixed_assets</t>
   </si>
   <si>
+    <t xml:space="preserve">\N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_stk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.data_account_type_current_assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_cas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Valuation Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_cas_interim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Interim Account (Received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_cas_interim2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Interim Account (Delivered)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_a_recv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.data_account_type_receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_other_ova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tax Paid</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_stk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.data_account_type_current_assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_cas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Valuation Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_cas_interim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Interim Account (Received)</t>
+    <t xml:space="preserve">z0bug.coa_bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.data_account_type_liquidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_o_income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening Income Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.data_account_type_other_income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.configurable_chart_template_liquidity_transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidity Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_liq_tra1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effetti attivi</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_cas_interim2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Interim Account (Delivered)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_a_recv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.data_account_type_receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.data_account_type_liquidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_o_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opening Income Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account.data_account_type_other_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.configurable_chart_template_liquidity_transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquidity Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_liq_tra1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effetti attivi</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.coa_liq_tra2</t>
   </si>
   <si>
@@ -188,6 +197,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tax Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_other_iva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tax Received</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_generic_coa.conf_a_reserve_and_surplus</t>
@@ -547,12 +562,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,52 +660,52 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>101130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>101200</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>101300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -701,36 +716,36 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>10301</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>101401</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>101401</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>101501</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,50 +753,50 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>101600</v>
+        <v>101501</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="2" t="n">
+        <v>101600</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>101701</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>101710</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,50 +804,50 @@
         <v>36</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>101720</v>
+        <v>101710</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>101720</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>101730</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>102000</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +855,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>103000</v>
+        <v>102000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -853,37 +868,37 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="2" t="n">
+        <v>103000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>110000</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>111000</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +906,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>111100</v>
+        <v>111000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>52</v>
@@ -900,7 +915,7 @@
         <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,13 +923,13 @@
         <v>54</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>111200</v>
+        <v>111100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -922,36 +937,36 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>111300</v>
+        <v>111200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>112000</v>
+        <v>111201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,30 +974,30 @@
         <v>61</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>200000</v>
+        <v>111300</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="2" t="n">
+        <v>112000</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>200010</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -993,13 +1008,13 @@
         <v>66</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>201000</v>
+        <v>200000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -1007,104 +1022,103 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>200010</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>203000</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>210000</v>
+        <v>201000</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>211000</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>203000</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>210000</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>212100</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>212200</v>
+        <v>211000</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>212100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>212300</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -1112,104 +1126,103 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="n">
+        <v>212200</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>212300</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>220000</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="6" t="n">
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>230000</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="2" t="n">
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>233000</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>300100</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>300200</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>490050</v>
+        <v>300100</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -1217,22 +1230,58 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>300200</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>490050</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>999999</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
